--- a/crawling_project/crawling_excel.xlsx
+++ b/crawling_project/crawling_excel.xlsx
@@ -17,13 +17,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +53,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,653 +441,833 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>타이틀 설명</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>댓글수</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="D2" s="2" t="n"/>
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>공부 13편 ㅡ 공부에서 중요한 것</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>링크 :</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>https://davelee-fun.github.io/trial/board/lecture/18129880%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>뒤늦은 코로나 발병기</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>링크 :</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>https://davelee-fun.github.io/trial/board/lecture/18128667%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>코로나, 이제는 비급여인가요??</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>@아디프렌님 그런가봅니다</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="3" t="n"/>
+      <c r="E6" s="3" t="n"/>
+      <c r="F6" s="3" t="n"/>
+      <c r="G6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>전 작년 12월에 코로나 걸렸을 때 기침은 2달정도 가다가 어느순간 없어지더군요. 다른 증상들은 금방 지나가더라구요. 참 전 목아프고그런건 없었네요. 이때 코감기약 코메키나가 효과가 좋아서 그뒤로도 코감기 증상있으면 한두번 먹으면 금방 없어 지더라구요. 그때 산 10캡슐이아직도 4캡슐 남았네요.빠른 쾌유를...</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="3" t="n"/>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>저는 딴 건 그러려니 하는데 목을 칼로 난도질한 듯한 통증이 제일 힘들었습니다</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>@Exhaust님 저는 다행히 이런통증과, 냄새 못맡는 증상이 덜하네요.</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>집안에 코로나 환자가 발생하면 제 아무리 잘 단속을 해도 가족 모두에게 전염됩니다.부인이 만삭이라시니, 가능하면 처가쪽이든 친가쪽이든피신이 좋겠습니다.(한가정내 모든 감염 사태 경험자입니다)</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>@NiCo-K님 네 피신해있는중입니다. 제가 나와있습니다</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>저랑 비슷하시네요. 저도 목요일부터 이상증상이 있어 금요일에 검사하고 첫 코로나 확진 받았어요. 저는 골고루 증상이 다 발현되는중이네요. 빠른 쾌차 하시길.</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>백신은 병균이 오는걸 막는게 아니고 덜 아프게 해주겠죠. 너무 백신만 맹신하지 마세요.제 아이와 아내도 지난주에 확진 되었는데 다행히도그리 많이 아프지 않고 지나갔습니다.초기에 전염되었던 저는 정말 많이 힘들었어요... 눈까지 전부 빨개지고.</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>유니티로 간단한 게임 만들기</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" s="3" t="inlineStr">
         <is>
           <t>링크 :</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
         <is>
           <t>https://davelee-fun.github.io/trial/board/lecture/18128206%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>엄지척입니다!</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>@굥교육님 감사합니다 ^^</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>재미있네요</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>@님 참신한 게임 아이디어가 너무 부러워요 :)</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="n"/>
+      <c r="G18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>잘 봤습니다. 모델링 하는것도 강의가 있나요?</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="3" t="n"/>
+      <c r="E19" s="3" t="n"/>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>@카슈밀님 모델링 강의는 아직없습니다 ^^;</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" s="3" t="n"/>
+      <c r="E20" s="3" t="n"/>
+      <c r="F20" s="3" t="n"/>
+      <c r="G20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>일단 공감 감사합니다!!</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>@박달냥님 감사합니다!</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" s="3" t="n"/>
+      <c r="E22" s="3" t="n"/>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>이제 광고 붙여서 돈버는 법 알려주세요.ㅎㅎ</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" s="3" t="n"/>
+      <c r="E23" s="3" t="n"/>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>@안녕킴밥님 구글 애즈 연동하는 것도언젠가 한 번 다뤄보겠습니다 :)</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
+      <c r="G24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>팁과강좌는 유튜브 홍보 게시판이구나..</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>@아무개다님 유튜브 동영상이불편하셨다면 사과드립니다.</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>이런 글 좋아요재밌어요</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>@OLD한량님 재밌게 봐주셔서감사해요 :)</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>오~ 재밋습니다. 강의 감사합니다. 그런데 crazy archery, twisty arrow란 게임들과 비슷하네요</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>@벗바리님 twisty arrow는 완전 똑같아 보이네요 ㅋㅋ 구글 플레이 스토어에는 유명한 게임이 하나 있으면 줄줄이 따라서 카피 게임들이 만들어지는 것 같아요 ㅎ</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>와 신기하네요</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" s="2" t="n"/>
+      <c r="D31" s="2" t="n"/>
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>와 너무 멋지시네요!</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>차에서 태블릿 사용 / 발열문제 해결책</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" s="3" t="inlineStr">
         <is>
           <t>링크 :</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
         <is>
           <t>https://davelee-fun.github.io/trial/board/lecture/18127635%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>저도 리즘 자석 거치대 쓰고 있습니다. 2개로 아이패드 미니 5세대 붙여두는데 3개 쓰고 계시네요 ㅋㅋ 야외 주차시에는 태블릿을 글로브박스에수납하고요.</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>@님 네 아직 자석 거치대는 리즘 만한걸 못찾았습니다.</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>저도 갤럭시 탑 액티브 1을 네비대용으로 잘썼던 기억입니다.(밀스펙 MIL-STD-810H)이제는 사양이 너무 떨어져 방치지만..태양빛에 지속 노출되서 수십도 올라가는 문제는 아무리 MIL-STD-810H 사양이라한들 배터리쪽은 답이 없어서 글쓰신대로 빛가리개 or자석거치대로 안쓸때는 내려놓기 or 대쉬보드 하단에 네비를 위치시켜 태양빛에 직접 노출안되게 하기정도인데 전 세번째를택했습니다.영하 23도에 차량 외브 주 차했을시 타블렛 사용은되는데 충전은 안되는 상황을 겪어봤습니다.</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>저도 차량용 오디오 라디오 다 필요없어서 오디오 뽑아버리고 그 자리에 Proclip 거치대를 박았습니다.자석 등은 사고시 위험할 수있어서요.. 거치대로 물리적인 장착이라 절대 빠지지 않고요.. 탈착이 가능해서 집에 갈 땐 바로 떼어서 거지고 갑니다.아이패드 11인치거치하는데요.. 좋아요</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>저 태블릿이 위치면 오른쪽이 거의 안보이는 거 아닌가요?</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="n"/>
+      <c r="G38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>@배꼽잡아님 시야 안보이면인치다운도 고려 할텐데 불편하다고 생각한 적은 없습니다.</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>10년 정도 차 여러대에 휴대폰이 흡착판으로 부착돼있는데 충전이 고열로 안되기는 해도 크게 문제는 없었습니다. 태블릿은 한여름에 전부 다떨어졌어요. 차안이 100도 가까이 올라간다니 무거운건 답없는거 같더라구요</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" s="3" t="n"/>
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
+      <c r="G40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>러기드 태블릿 (배터리 제거 후 외부 전원으로 구동 가능)도 고려해 보셔요.</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>차주 선택 사항이지만 대시보드에 저렇게 뭔가를 달아두면 사고시에 저것들은 전부 미사일이 됩니다. 어디로 날아다닐지 알수가 없어요.그래서개인적으로 저는 대시보드에 뭔가를 부착하는 것은 반대합니다.</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" s="2" t="n"/>
+      <c r="D42" s="2" t="n"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>좋은차인데 핸드폰걸치대 + 쿨러 +태블릿 보조베터리....어마어마 하네요.운전석 시야는 괜찮나요.? 시트 엄청 높이지 않는이상 핸드폰도거치하면 가리던데.....</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>chatgpt에서 만든 마크다운을 마인드맵으로 간단하게 사용하기</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t>링크 :</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t>https://davelee-fun.github.io/trial/board/lecture/18125420%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>좋은 정보 감사합니다.</t>
         </is>
       </c>
     </row>
@@ -1084,6 +1278,18 @@
         </is>
       </c>
       <c r="B45" t="inlineStr">
+        <is>
+          <t>좋은 정보 감사합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>정보 감사합니다!</t>
         </is>

--- a/crawling_project/crawling_excel.xlsx
+++ b/crawling_project/crawling_excel.xlsx
@@ -27,7 +27,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="20"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,95 +444,72 @@
       <c r="A1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>타이틀 설명</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>댓글수</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>공부 13편 ㅡ 공부에서 중요한 것</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>링크 :</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/lecture/18129880%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>뒤늦은 코로나 발병기</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>뒤늦은코로나발병기</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>링크 :</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/lecture/18128667%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
-        </is>
-      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -549,7 +526,6 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="3" t="n"/>
       <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -566,7 +542,6 @@
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -583,7 +558,6 @@
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -600,7 +574,6 @@
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="3" t="n"/>
       <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -617,7 +590,6 @@
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -634,7 +606,6 @@
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -651,24 +622,22 @@
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="3" t="n"/>
       <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>저랑 비슷하시네요. 저도 목요일부터 이상증상이 있어 금요일에 검사하고 첫 코로나 확진 받았어요. 저는 골고루 증상이 다 발현되는중이네요. 빠른 쾌차 하시길.</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -685,43 +654,28 @@
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>유니티로 간단한 게임 만들기</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>유니티로간단한게임만들기</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>링크 :</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/lecture/18128206%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
-        </is>
-      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -738,7 +692,6 @@
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -755,7 +708,6 @@
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -772,7 +724,6 @@
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="3" t="n"/>
       <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -789,7 +740,6 @@
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -806,7 +756,6 @@
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -823,7 +772,6 @@
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="3" t="n"/>
       <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -840,7 +788,6 @@
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -857,7 +804,6 @@
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -874,7 +820,6 @@
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="3" t="n"/>
       <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -891,7 +836,6 @@
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -908,7 +852,6 @@
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -925,7 +868,6 @@
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="3" t="n"/>
       <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -942,7 +884,6 @@
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -959,7 +900,6 @@
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="3" t="n"/>
       <c r="F28" s="3" t="n"/>
-      <c r="G28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -976,7 +916,6 @@
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="3" t="n"/>
       <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -993,24 +932,22 @@
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>와 신기하네요</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -1027,43 +964,28 @@
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="3" t="n"/>
       <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>차에서 태블릿 사용 / 발열문제 해결책</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>차에서태블릿사용/발열문제해결책</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="inlineStr">
-        <is>
-          <t>링크 :</t>
-        </is>
-      </c>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/lecture/18127635%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
-        </is>
-      </c>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -1080,7 +1002,6 @@
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="3" t="n"/>
       <c r="F34" s="3" t="n"/>
-      <c r="G34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -1097,7 +1018,6 @@
       <c r="D35" s="3" t="n"/>
       <c r="E35" s="3" t="n"/>
       <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1114,7 +1034,6 @@
       <c r="D36" s="3" t="n"/>
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1131,7 +1050,6 @@
       <c r="D37" s="3" t="n"/>
       <c r="E37" s="3" t="n"/>
       <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -1148,7 +1066,6 @@
       <c r="D38" s="3" t="n"/>
       <c r="E38" s="3" t="n"/>
       <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -1165,7 +1082,6 @@
       <c r="D39" s="3" t="n"/>
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -1182,7 +1098,6 @@
       <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
-      <c r="G40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -1199,24 +1114,22 @@
       <c r="D41" s="3" t="n"/>
       <c r="E41" s="3" t="n"/>
       <c r="F41" s="3" t="n"/>
-      <c r="G41" s="3" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>차주 선택 사항이지만 대시보드에 저렇게 뭔가를 달아두면 사고시에 저것들은 전부 미사일이 됩니다. 어디로 날아다닐지 알수가 없어요.그래서개인적으로 저는 대시보드에 뭔가를 부착하는 것은 반대합니다.</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -1233,69 +1146,69 @@
       <c r="D43" s="3" t="n"/>
       <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
-      <c r="G43" s="3" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>chatgpt에서 만든 마크다운을 마인드맵으로 간단하게 사용하기</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>chatgpt에서만든마크다운을마인드맵으로간단하게사용하기</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>링크 :</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>https://davelee-fun.github.io/trial/board/lecture/18125420%EF%B9%96od=T31&amp;po=0&amp;category=0&amp;groupCd=.html</t>
-        </is>
-      </c>
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>좋은 정보 감사합니다.</t>
         </is>
       </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>정보 감사합니다!</t>
         </is>
       </c>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/crawling_project/crawling_excel.xlsx
+++ b/crawling_project/crawling_excel.xlsx
@@ -31,17 +31,26 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="16"/>
+      <u val="single"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,17 +58,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,32 +456,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>타이틀 설명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>댓글수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>타이틀 설명</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>댓글수</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>공부 13편 ㅡ 공부에서 중요한 것</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>댓글수 :</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>공부 13편 ㅡ 공부에서 중요한 것</t>
+          <t>뒤늦은코로나발병기</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -474,42 +504,25 @@
           <t>댓글수 :</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>링크 :</t>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>뒤늦은코로나발병기</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>댓글수 :</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>코로나, 이제는 비급여인가요??</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -519,13 +532,11 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>코로나, 이제는 비급여인가요??</t>
+          <t>@아디프렌님 그런가봅니다</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -535,13 +546,11 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>@아디프렌님 그런가봅니다</t>
+          <t>전 작년 12월에 코로나 걸렸을 때 기침은 2달정도 가다가 어느순간 없어지더군요. 다른 증상들은 금방 지나가더라구요. 참 전 목아프고그런건 없었네요. 이때 코감기약 코메키나가 효과가 좋아서 그뒤로도 코감기 증상있으면 한두번 먹으면 금방 없어 지더라구요. 그때 산 10캡슐이아직도 4캡슐 남았네요.빠른 쾌유를...</t>
         </is>
       </c>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -551,13 +560,11 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>전 작년 12월에 코로나 걸렸을 때 기침은 2달정도 가다가 어느순간 없어지더군요. 다른 증상들은 금방 지나가더라구요. 참 전 목아프고그런건 없었네요. 이때 코감기약 코메키나가 효과가 좋아서 그뒤로도 코감기 증상있으면 한두번 먹으면 금방 없어 지더라구요. 그때 산 10캡슐이아직도 4캡슐 남았네요.빠른 쾌유를...</t>
+          <t>저는 딴 건 그러려니 하는데 목을 칼로 난도질한 듯한 통증이 제일 힘들었습니다</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -567,13 +574,11 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>저는 딴 건 그러려니 하는데 목을 칼로 난도질한 듯한 통증이 제일 힘들었습니다</t>
+          <t>@Exhaust님 저는 다행히 이런통증과, 냄새 못맡는 증상이 덜하네요.</t>
         </is>
       </c>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -583,13 +588,11 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>@Exhaust님 저는 다행히 이런통증과, 냄새 못맡는 증상이 덜하네요.</t>
+          <t>집안에 코로나 환자가 발생하면 제 아무리 잘 단속을 해도 가족 모두에게 전염됩니다.부인이 만삭이라시니, 가능하면 처가쪽이든 친가쪽이든피신이 좋겠습니다.(한가정내 모든 감염 사태 경험자입니다)</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -599,13 +602,11 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>집안에 코로나 환자가 발생하면 제 아무리 잘 단속을 해도 가족 모두에게 전염됩니다.부인이 만삭이라시니, 가능하면 처가쪽이든 친가쪽이든피신이 좋겠습니다.(한가정내 모든 감염 사태 경험자입니다)</t>
+          <t>@NiCo-K님 네 피신해있는중입니다. 제가 나와있습니다</t>
         </is>
       </c>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -615,13 +616,11 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>@NiCo-K님 네 피신해있는중입니다. 제가 나와있습니다</t>
+          <t>저랑 비슷하시네요. 저도 목요일부터 이상증상이 있어 금요일에 검사하고 첫 코로나 확진 받았어요. 저는 골고루 증상이 다 발현되는중이네요. 빠른 쾌차 하시길.</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -631,51 +630,45 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>저랑 비슷하시네요. 저도 목요일부터 이상증상이 있어 금요일에 검사하고 첫 코로나 확진 받았어요. 저는 골고루 증상이 다 발현되는중이네요. 빠른 쾌차 하시길.</t>
+          <t>백신은 병균이 오는걸 막는게 아니고 덜 아프게 해주겠죠. 너무 백신만 맹신하지 마세요.제 아이와 아내도 지난주에 확진 되었는데 다행히도그리 많이 아프지 않고 지나갔습니다.초기에 전염되었던 저는 정말 많이 힘들었어요... 눈까지 전부 빨개지고.</t>
         </is>
       </c>
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>백신은 병균이 오는걸 막는게 아니고 덜 아프게 해주겠죠. 너무 백신만 맹신하지 마세요.제 아이와 아내도 지난주에 확진 되었는데 다행히도그리 많이 아프지 않고 지나갔습니다.초기에 전염되었던 저는 정말 많이 힘들었어요... 눈까지 전부 빨개지고.</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
+      <c r="A13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>유니티로간단한게임만들기</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>댓글수 :</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>유니티로간단한게임만들기</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>댓글수 :</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>엄지척입니다!</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -685,13 +678,11 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>엄지척입니다!</t>
+          <t>@굥교육님 감사합니다 ^^</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -701,13 +692,11 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>@굥교육님 감사합니다 ^^</t>
+          <t>재미있네요</t>
         </is>
       </c>
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -717,13 +706,11 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>재미있네요</t>
+          <t>@님 참신한 게임 아이디어가 너무 부러워요 :)</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -733,13 +720,11 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>@님 참신한 게임 아이디어가 너무 부러워요 :)</t>
+          <t>잘 봤습니다. 모델링 하는것도 강의가 있나요?</t>
         </is>
       </c>
       <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -749,13 +734,11 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>잘 봤습니다. 모델링 하는것도 강의가 있나요?</t>
+          <t>@카슈밀님 모델링 강의는 아직없습니다 ^^;</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -765,13 +748,11 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>@카슈밀님 모델링 강의는 아직없습니다 ^^;</t>
+          <t>일단 공감 감사합니다!!</t>
         </is>
       </c>
       <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -781,13 +762,11 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>일단 공감 감사합니다!!</t>
+          <t>@박달냥님 감사합니다!</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -797,13 +776,11 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>@박달냥님 감사합니다!</t>
+          <t>이제 광고 붙여서 돈버는 법 알려주세요.ㅎㅎ</t>
         </is>
       </c>
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -813,13 +790,11 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>이제 광고 붙여서 돈버는 법 알려주세요.ㅎㅎ</t>
+          <t>@안녕킴밥님 구글 애즈 연동하는 것도언젠가 한 번 다뤄보겠습니다 :)</t>
         </is>
       </c>
       <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -829,13 +804,11 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>@안녕킴밥님 구글 애즈 연동하는 것도언젠가 한 번 다뤄보겠습니다 :)</t>
+          <t>팁과강좌는 유튜브 홍보 게시판이구나..</t>
         </is>
       </c>
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -845,13 +818,11 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>팁과강좌는 유튜브 홍보 게시판이구나..</t>
+          <t>@아무개다님 유튜브 동영상이불편하셨다면 사과드립니다.</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -861,13 +832,11 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>@아무개다님 유튜브 동영상이불편하셨다면 사과드립니다.</t>
+          <t>이런 글 좋아요재밌어요</t>
         </is>
       </c>
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -877,13 +846,11 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>이런 글 좋아요재밌어요</t>
+          <t>@OLD한량님 재밌게 봐주셔서감사해요 :)</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -893,13 +860,11 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>@OLD한량님 재밌게 봐주셔서감사해요 :)</t>
+          <t>오~ 재밋습니다. 강의 감사합니다. 그런데 crazy archery, twisty arrow란 게임들과 비슷하네요</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -909,13 +874,11 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>오~ 재밋습니다. 강의 감사합니다. 그런데 crazy archery, twisty arrow란 게임들과 비슷하네요</t>
+          <t>@벗바리님 twisty arrow는 완전 똑같아 보이네요 ㅋㅋ 구글 플레이 스토어에는 유명한 게임이 하나 있으면 줄줄이 따라서 카피 게임들이 만들어지는 것 같아요 ㅎ</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -925,13 +888,11 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>@벗바리님 twisty arrow는 완전 똑같아 보이네요 ㅋㅋ 구글 플레이 스토어에는 유명한 게임이 하나 있으면 줄줄이 따라서 카피 게임들이 만들어지는 것 같아요 ㅎ</t>
+          <t>와 신기하네요</t>
         </is>
       </c>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -941,51 +902,45 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>와 신기하네요</t>
+          <t>와 너무 멋지시네요!</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>와 너무 멋지시네요!</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
+      <c r="A32" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>차에서태블릿사용/발열문제해결책</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>댓글수 :</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>차에서태블릿사용/발열문제해결책</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>댓글수 :</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>저도 리즘 자석 거치대 쓰고 있습니다. 2개로 아이패드 미니 5세대 붙여두는데 3개 쓰고 계시네요 ㅋㅋ 야외 주차시에는 태블릿을 글로브박스에수납하고요.</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -995,13 +950,11 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>저도 리즘 자석 거치대 쓰고 있습니다. 2개로 아이패드 미니 5세대 붙여두는데 3개 쓰고 계시네요 ㅋㅋ 야외 주차시에는 태블릿을 글로브박스에수납하고요.</t>
+          <t>@님 네 아직 자석 거치대는 리즘 만한걸 못찾았습니다.</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -1011,13 +964,11 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>@님 네 아직 자석 거치대는 리즘 만한걸 못찾았습니다.</t>
+          <t>저도 갤럭시 탑 액티브 1을 네비대용으로 잘썼던 기억입니다.(밀스펙 MIL-STD-810H)이제는 사양이 너무 떨어져 방치지만..태양빛에 지속 노출되서 수십도 올라가는 문제는 아무리 MIL-STD-810H 사양이라한들 배터리쪽은 답이 없어서 글쓰신대로 빛가리개 or자석거치대로 안쓸때는 내려놓기 or 대쉬보드 하단에 네비를 위치시켜 태양빛에 직접 노출안되게 하기정도인데 전 세번째를택했습니다.영하 23도에 차량 외브 주 차했을시 타블렛 사용은되는데 충전은 안되는 상황을 겪어봤습니다.</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -1027,13 +978,11 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>저도 갤럭시 탑 액티브 1을 네비대용으로 잘썼던 기억입니다.(밀스펙 MIL-STD-810H)이제는 사양이 너무 떨어져 방치지만..태양빛에 지속 노출되서 수십도 올라가는 문제는 아무리 MIL-STD-810H 사양이라한들 배터리쪽은 답이 없어서 글쓰신대로 빛가리개 or자석거치대로 안쓸때는 내려놓기 or 대쉬보드 하단에 네비를 위치시켜 태양빛에 직접 노출안되게 하기정도인데 전 세번째를택했습니다.영하 23도에 차량 외브 주 차했을시 타블렛 사용은되는데 충전은 안되는 상황을 겪어봤습니다.</t>
+          <t>저도 차량용 오디오 라디오 다 필요없어서 오디오 뽑아버리고 그 자리에 Proclip 거치대를 박았습니다.자석 등은 사고시 위험할 수있어서요.. 거치대로 물리적인 장착이라 절대 빠지지 않고요.. 탈착이 가능해서 집에 갈 땐 바로 떼어서 거지고 갑니다.아이패드 11인치거치하는데요.. 좋아요</t>
         </is>
       </c>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -1043,13 +992,11 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>저도 차량용 오디오 라디오 다 필요없어서 오디오 뽑아버리고 그 자리에 Proclip 거치대를 박았습니다.자석 등은 사고시 위험할 수있어서요.. 거치대로 물리적인 장착이라 절대 빠지지 않고요.. 탈착이 가능해서 집에 갈 땐 바로 떼어서 거지고 갑니다.아이패드 11인치거치하는데요.. 좋아요</t>
+          <t>저 태블릿이 위치면 오른쪽이 거의 안보이는 거 아닌가요?</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -1059,13 +1006,11 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>저 태블릿이 위치면 오른쪽이 거의 안보이는 거 아닌가요?</t>
+          <t>@배꼽잡아님 시야 안보이면인치다운도 고려 할텐데 불편하다고 생각한 적은 없습니다.</t>
         </is>
       </c>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -1075,13 +1020,11 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>@배꼽잡아님 시야 안보이면인치다운도 고려 할텐데 불편하다고 생각한 적은 없습니다.</t>
+          <t>10년 정도 차 여러대에 휴대폰이 흡착판으로 부착돼있는데 충전이 고열로 안되기는 해도 크게 문제는 없었습니다. 태블릿은 한여름에 전부 다떨어졌어요. 차안이 100도 가까이 올라간다니 무거운건 답없는거 같더라구요</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -1091,13 +1034,11 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>10년 정도 차 여러대에 휴대폰이 흡착판으로 부착돼있는데 충전이 고열로 안되기는 해도 크게 문제는 없었습니다. 태블릿은 한여름에 전부 다떨어졌어요. 차안이 100도 가까이 올라간다니 무거운건 답없는거 같더라구요</t>
+          <t>러기드 태블릿 (배터리 제거 후 외부 전원으로 구동 가능)도 고려해 보셔요.</t>
         </is>
       </c>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -1107,13 +1048,11 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>러기드 태블릿 (배터리 제거 후 외부 전원으로 구동 가능)도 고려해 보셔요.</t>
+          <t>차주 선택 사항이지만 대시보드에 저렇게 뭔가를 달아두면 사고시에 저것들은 전부 미사일이 됩니다. 어디로 날아다닐지 알수가 없어요.그래서개인적으로 저는 대시보드에 뭔가를 부착하는 것은 반대합니다.</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
       <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -1123,51 +1062,45 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>차주 선택 사항이지만 대시보드에 저렇게 뭔가를 달아두면 사고시에 저것들은 전부 미사일이 됩니다. 어디로 날아다닐지 알수가 없어요.그래서개인적으로 저는 대시보드에 뭔가를 부착하는 것은 반대합니다.</t>
+          <t>좋은차인데 핸드폰걸치대 + 쿨러 +태블릿 보조베터리....어마어마 하네요.운전석 시야는 괜찮나요.? 시트 엄청 높이지 않는이상 핸드폰도거치하면 가리던데.....</t>
         </is>
       </c>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>좋은차인데 핸드폰걸치대 + 쿨러 +태블릿 보조베터리....어마어마 하네요.운전석 시야는 괜찮나요.? 시트 엄청 높이지 않는이상 핸드폰도거치하면 가리던데.....</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="3" t="n"/>
-      <c r="E43" s="3" t="n"/>
-      <c r="F43" s="3" t="n"/>
+      <c r="A43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>chatgpt에서만든마크다운을마인드맵으로간단하게사용하기</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>댓글수 :</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>chatgpt에서만든마크다운을마인드맵으로간단하게사용하기</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>댓글수 :</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">댓글 : </t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>좋은 정보 감사합니다.</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -1177,37 +1110,19 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>좋은 정보 감사합니다.</t>
+          <t>정보 감사합니다!</t>
         </is>
       </c>
       <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">댓글 : </t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>정보 감사합니다!</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B4" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
